--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>822131.3289574324</v>
+        <v>883912.3272410136</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484448</v>
+        <v>492028.9342484442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7407983.314436222</v>
+        <v>7407983.314436221</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>319.3260459003675</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>221.8591097027149</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,25 +817,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>19.71125495081928</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>66.97782568592973</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>214.5368897552617</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>210.7115744163708</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,13 +1063,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,25 +1102,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>106.4212429248897</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>243.9317179724229</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>79.43158348657937</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1291,10 +1291,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>240.9739924675</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>263.0942831372902</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>32.67077719907106</v>
+        <v>206.485501777225</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>3.139541480023742</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093073</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1619,10 +1619,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>129.3727203283468</v>
       </c>
       <c r="H14" t="n">
-        <v>274.8577999327475</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>134.2252585165373</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>246.3549093206801</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>90.9796478308906</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480023066</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2135,16 +2135,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>132.7957673084556</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>403.5699857080144</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7884964950059</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170516</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6379250432762</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2716,22 +2716,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>102.8562685532383</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>60.78001549303706</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>162.9282706828487</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>85.5532963163069</v>
       </c>
     </row>
     <row r="32">
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>222.6988144892037</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3253,7 +3253,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3433,16 +3433,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>105.2234111170475</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>240.4911776300921</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3487,7 +3487,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225779</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,10 +3724,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>102.2146311366277</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3794,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561524</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3904,16 +3904,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>141.0670894717356</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>98.98021706930146</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>10.04027365719944</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>166.3197703738369</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.680625966315</v>
+        <v>2008.901827435639</v>
       </c>
       <c r="C2" t="n">
-        <v>418.0989517035833</v>
+        <v>1570.759354619063</v>
       </c>
       <c r="D2" t="n">
-        <v>386.2295709184319</v>
+        <v>1134.849569793507</v>
       </c>
       <c r="E2" t="n">
-        <v>356.4952301171311</v>
+        <v>701.0748249518022</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>273.2073953610099</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>524.3060841805643</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805643</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489125</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797686</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756281</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>2454.549176960775</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>2035.406713540086</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>2031.160993880143</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397428</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>446.7326829940193</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>760.5269815952424</v>
+        <v>798.8070381432303</v>
       </c>
       <c r="C4" t="n">
-        <v>587.9652700784674</v>
+        <v>778.8966796070492</v>
       </c>
       <c r="D4" t="n">
-        <v>587.9652700784674</v>
+        <v>613.0186868085719</v>
       </c>
       <c r="E4" t="n">
-        <v>418.2072663292046</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="F4" t="n">
-        <v>241.5002122909608</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018675</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>91.3608564523079</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>509.5707382202689</v>
+        <v>828.6553060539733</v>
       </c>
       <c r="M4" t="n">
-        <v>929.6236371651722</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1349.676536110076</v>
+        <v>1519.995309448882</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1939.664558674664</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645006</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509338</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214709</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512706</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2028.825591091161</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1750.392590344266</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1463.437082214697</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.157025666709</v>
+        <v>1463.437082214697</v>
       </c>
       <c r="X4" t="n">
-        <v>1179.765271000121</v>
+        <v>1218.045327548109</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.3456003142296</v>
+        <v>990.6256568622175</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>550.1887779922017</v>
+        <v>1197.718769568169</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>1163.616700791996</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>727.7069159664404</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>697.9725751651397</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>270.1051455743474</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1400.691582106304</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1400.691582106304</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1399.876531557741</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X5" t="n">
-        <v>980.7340681370521</v>
+        <v>2032.304463753423</v>
       </c>
       <c r="Y5" t="n">
-        <v>572.4479444367055</v>
+        <v>1624.018340053076</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.8013258914481</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>458.239614374673</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>292.3616215761957</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>270.6749755583173</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>983.6892855326716</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>876.1930805580356</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>630.8013258914481</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>630.8013258914481</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.3855594523338</v>
+        <v>1599.490795190364</v>
       </c>
       <c r="C8" t="n">
-        <v>526.2430866357572</v>
+        <v>1161.348322373788</v>
       </c>
       <c r="D8" t="n">
-        <v>90.3333018102017</v>
+        <v>725.438537548232</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890094</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851274</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576078</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743897</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873485</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.44270817258</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1475.979822859463</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>1475.164772310901</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X8" t="n">
-        <v>1394.930849597184</v>
+        <v>2030.036085335214</v>
       </c>
       <c r="Y8" t="n">
-        <v>1390.685129937242</v>
+        <v>2025.790365675272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>36.77193545851274</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>36.77193545851274</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>36.77193545851274</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>36.77193545851274</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>36.77193545851274</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>217.6808149456965</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447916</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>548.8282682201916</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>548.8282682201916</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>548.8282682201916</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>379.0702644709289</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>202.3632104326851</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851274</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>123.3516206232026</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>541.5615023911637</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>996.6142036902587</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1438.873006847903</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1438.873006847903</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061304</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631009</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1817.178951631009</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1817.178951631009</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="U10" t="n">
-        <v>1538.745950884114</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1251.790442754544</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>986.0386416057663</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>740.6468869391788</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>740.6468869391788</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D11" t="n">
         <v>1649.322926419992</v>
@@ -5027,61 +5027,61 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L11" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M11" t="n">
-        <v>1253.783811891666</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="N11" t="n">
-        <v>2379.514795328113</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O11" t="n">
-        <v>3359.694461898419</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
-        <v>4188.004336731816</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4734.50312269041</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.798049006192</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="U11" t="n">
         <v>4544.575746323208</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W11" t="n">
         <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y11" t="n">
         <v>2949.674754547032</v>
@@ -5112,28 +5112,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.8119928041001</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C13" t="n">
-        <v>612.250281287325</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D13" t="n">
-        <v>446.3722884888477</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E13" t="n">
-        <v>276.614284739585</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>99.90723070134121</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>99.90723070134121</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165739</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418844</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289275</v>
+        <v>2112.450585778172</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875566</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.050282208979</v>
+        <v>1595.032426697876</v>
       </c>
       <c r="Y13" t="n">
-        <v>976.6306115230873</v>
+        <v>1367.612756011984</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2511.87917085155</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2073.736698034974</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1637.826913209418</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.052168367713</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>776.1847387769212</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G14" t="n">
-        <v>374.7869074001846</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L14" t="n">
-        <v>1155.608606729855</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940405</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2379.514795328113</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3359.694461898419</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112634</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>4170.462783046461</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W14" t="n">
-        <v>3765.607328457494</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X14" t="n">
-        <v>3346.464865036805</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2938.178741336458</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1035.891962983371</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C16" t="n">
-        <v>863.3302514665963</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D16" t="n">
-        <v>697.4522586681189</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>527.6942549188561</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>350.9872008806124</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>185.39592590644</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2556.396696080663</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T16" t="n">
-        <v>2310.517249659119</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U16" t="n">
-        <v>2032.084248912224</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V16" t="n">
-        <v>1745.128740782654</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W16" t="n">
-        <v>1473.102336368946</v>
+        <v>1611.862057829512</v>
       </c>
       <c r="X16" t="n">
-        <v>1227.710581702358</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1227.710581702358</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2336.308741984731</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>1898.166269168154</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
         <v>1649.322926419992</v>
@@ -5501,13 +5501,13 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G17" t="n">
         <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397514</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
@@ -5519,10 +5519,10 @@
         <v>96.73597668111518</v>
       </c>
       <c r="L17" t="n">
-        <v>96.73597668111518</v>
+        <v>1171.795942933974</v>
       </c>
       <c r="M17" t="n">
-        <v>1253.783811891666</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N17" t="n">
         <v>2312.656441940405</v>
@@ -5540,25 +5540,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.89235417964</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.036899590674</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169985</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.608312469638</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.8119928040995</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>612.2502812873244</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>446.3722884888471</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>276.6142847395843</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>99.90723070134047</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
         <v>96.73597668111518</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2008.423949418844</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.468441289274</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1449.442036875566</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.050282208978</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>976.6306115230866</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062124</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C20" t="n">
         <v>2085.232711245548</v>
@@ -5744,34 +5744,34 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>97.1527660539752</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L20" t="n">
-        <v>1155.608606729855</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940405</v>
+        <v>1253.783811891666</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940405</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510712</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344108</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.103341668068</v>
+        <v>3765.607328457495</v>
       </c>
       <c r="X20" t="n">
         <v>3357.960878247379</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547032</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="K21" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="L21" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="M21" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="N21" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="O21" t="n">
         <v>282.3408549543107</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>944.0533615061023</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C22" t="n">
-        <v>771.4916499893272</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D22" t="n">
-        <v>605.6136571908499</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E22" t="n">
-        <v>435.8556534415872</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>259.1485994033434</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="S22" t="n">
-        <v>2691.977765289287</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.098318867741</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2167.665318120847</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
-        <v>1880.709809991277</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1608.683405577569</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1363.291650910981</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.871980225089</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674087</v>
+        <v>473.3149733731399</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238771</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856333</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6175,22 +6175,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2281.246080724681</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6300,22 +6300,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O27" t="n">
         <v>287.8657185439749</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.754677688392</v>
+        <v>949.5782250957677</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716169</v>
+        <v>777.0165135789927</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731396</v>
+        <v>777.0165135789927</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238769</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>303.5569696238769</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>303.5569696238769</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>163.6547953142514</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1141.396843814755</v>
       </c>
     </row>
     <row r="29">
@@ -6537,22 +6537,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O30" t="n">
         <v>287.8657185439749</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1003.573296407379</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6664,7 +6664,7 @@
         <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6701,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1021.77365348828</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2178.821488698831</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O32" t="n">
-        <v>4566.543227580386</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405614</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420841</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928213</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2088.851337586189</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1801.89582945662</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1529.869425042911</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1284.477670376324</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6941,37 +6941,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
@@ -6980,7 +6980,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903952</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405614</v>
+        <v>798.4343348736202</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420841</v>
+        <v>632.5563420751429</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928213</v>
+        <v>462.7983383258801</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>462.7983383258801</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>297.2070633517078</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2070.879253605493</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1783.923745475924</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1511.897341062215</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376324</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7178,37 +7178,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257732</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O39" t="n">
         <v>287.8657185439749</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477115</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309365</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324589</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X40" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066699</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7409,37 +7409,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
         <v>4550.100609912874</v>
@@ -7451,10 +7451,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O42" t="n">
         <v>287.8657185439749</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1041.416826573035</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C43" t="n">
-        <v>868.8551150562604</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D43" t="n">
-        <v>702.9771222577831</v>
+        <v>473.3149733731394</v>
       </c>
       <c r="E43" t="n">
-        <v>533.2191185085204</v>
+        <v>473.3149733731394</v>
       </c>
       <c r="F43" t="n">
-        <v>356.5120644702766</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G43" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2597.522611637232</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2351.643165215688</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2073.210164468793</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1786.254656339223</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1514.228251925515</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.836497258927</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1041.416826573035</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7649,28 +7649,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L44" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
         <v>5029.390139722817</v>
@@ -7685,7 +7685,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
@@ -7722,22 +7722,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O45" t="n">
         <v>287.8657185439749</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.3368563937635</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>790.3368563937635</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>624.4588635952862</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>454.7008598460235</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>277.9938058077797</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>112.4025308336073</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7840,16 +7840,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>479.9987875054318</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099319</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>234.1981173878746</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,19 +8225,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>239.122532279504</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866484</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062463</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8611,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>233.8696880943446</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790752</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>103.3290013791402</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,19 +8930,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.568313180545</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>769.1429509552418</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>15.28233895957987</v>
       </c>
       <c r="N17" t="n">
-        <v>1069.568313180545</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,13 +9404,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.568313180545</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1069.568313180546</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10361,13 +10361,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>274.84172772886</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>185.1957776566207</v>
+        <v>11.38105307846681</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.3636110865055</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>208.2197249473431</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>268.0111327346219</v>
       </c>
       <c r="H14" t="n">
-        <v>11.38105307846837</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>23.42369649844599</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>185.1957776566198</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>268.0111327346211</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24023,16 +24023,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>268.0111327346214</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>11.38105307846803</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.146865729424688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.146865729424441</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>122.4480280049976</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>65.20415515853182</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>26.99333424003434</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>7.907823718758641</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,13 +25123,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>52.94985625022204</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>33.27974144948176</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>35.15749310933357</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>140.723205983294</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>33.87289402612573</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>58.66873794568183</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>128.4628789093298</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>117.7661826744369</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>619266.7750153036</v>
+        <v>619266.7750153037</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>619266.7750153037</v>
+        <v>619266.7750153036</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645400.5405682565</v>
+        <v>645400.5405682566</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>645400.5405682568</v>
+        <v>645400.5405682566</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645400.5405682566</v>
+        <v>645400.5405682565</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>645400.5405682568</v>
+        <v>645400.5405682566</v>
       </c>
     </row>
     <row r="16">
@@ -26320,19 +26320,19 @@
         <v>281477.3429424645</v>
       </c>
       <c r="E2" t="n">
-        <v>265400.0464351301</v>
+        <v>265400.0464351302</v>
       </c>
       <c r="F2" t="n">
         <v>265400.0464351301</v>
       </c>
       <c r="G2" t="n">
-        <v>265400.0464351301</v>
+        <v>265400.0464351302</v>
       </c>
       <c r="H2" t="n">
         <v>265400.0464351301</v>
       </c>
       <c r="I2" t="n">
-        <v>276600.2316721098</v>
+        <v>276600.2316721099</v>
       </c>
       <c r="J2" t="n">
         <v>276600.2316721099</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039029</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390664</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856133</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784513</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.3839715078</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>161077.0551897631</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="F4" t="n">
         <v>773.6821211687734</v>
       </c>
       <c r="G4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="H4" t="n">
         <v>773.6821211687734</v>
@@ -26448,13 +26448,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825613</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826432</v>
       </c>
       <c r="P4" t="n">
         <v>806.3323907826023</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814192</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
         <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-89306.83912422752</v>
+        <v>-120972.4337910882</v>
       </c>
       <c r="C6" t="n">
-        <v>52884.46153548235</v>
+        <v>76419.86778854956</v>
       </c>
       <c r="D6" t="n">
-        <v>47844.21013222911</v>
+        <v>93760.41216245615</v>
       </c>
       <c r="E6" t="n">
-        <v>-32692.27171571364</v>
+        <v>29295.38827140259</v>
       </c>
       <c r="F6" t="n">
-        <v>191107.0220363138</v>
+        <v>191030.463481517</v>
       </c>
       <c r="G6" t="n">
-        <v>191107.0220363138</v>
+        <v>191030.4634815171</v>
       </c>
       <c r="H6" t="n">
-        <v>191107.0220363138</v>
+        <v>191030.463481517</v>
       </c>
       <c r="I6" t="n">
-        <v>179710.9450426952</v>
+        <v>179687.7207033127</v>
       </c>
       <c r="J6" t="n">
-        <v>87061.19533054455</v>
+        <v>37444.60685053889</v>
       </c>
       <c r="K6" t="n">
-        <v>198075.6606755347</v>
+        <v>184238.427768307</v>
       </c>
       <c r="L6" t="n">
-        <v>189128.049587025</v>
+        <v>198052.4363361521</v>
       </c>
       <c r="M6" t="n">
-        <v>11284.67406506708</v>
+        <v>63062.49172314877</v>
       </c>
       <c r="N6" t="n">
-        <v>198075.6606755347</v>
+        <v>198052.4363361522</v>
       </c>
       <c r="O6" t="n">
-        <v>198075.6606755349</v>
+        <v>198052.4363361522</v>
       </c>
       <c r="P6" t="n">
-        <v>198075.6606755347</v>
+        <v>198052.4363361521</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052257</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052257</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052257</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>104.2627093945168</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>175.5247433602538</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27439,10 +27439,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>151.124839450788</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>96.95753653850088</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>182.8469633077071</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>45.91850523978246</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>162.8848974446817</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>185.5052794208648</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>335.519455299903</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>34.67467827192567</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>6.211857232281204</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>479.9987875054318</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773343</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099319</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773344</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>234.1981173878746</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,19 +34945,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>239.122532279504</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866484</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314092</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062463</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314092</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35331,22 +35331,22 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>233.8696880943446</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35416,7 +35416,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>1101.201496790752</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>103.3290013791402</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35650,19 +35650,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.568313180545</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>769.1429509552418</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35887,13 +35887,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>15.28233895957987</v>
       </c>
       <c r="N17" t="n">
-        <v>1069.568313180545</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36124,13 +36124,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.568313180545</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1069.568313180546</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -37069,25 +37069,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318188</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>274.84172772886</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37707,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463134</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
